--- a/gdp_revisions_analysis/output/tables/base_year_benchmark/unbiassdness_e_m.xlsx
+++ b/gdp_revisions_analysis/output/tables/base_year_benchmark/unbiassdness_e_m.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_analysis/output/tables/base_year_benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{93F9ABDE-F0F2-437C-8387-4F37526E42D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E701257-D2F8-4D97-B350-A6C6042AF214}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{93F9ABDE-F0F2-437C-8387-4F37526E42D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D9FBD7C-1F88-485E-BF71-926D29AFF743}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59A818B8-AC1C-48B4-9EC6-7BF703468C77}"/>
   </bookViews>
@@ -36,111 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="66">
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>0.058**</t>
-  </si>
-  <si>
-    <t>0.134***</t>
-  </si>
-  <si>
-    <t>0.438***</t>
-  </si>
-  <si>
-    <t>0.299***</t>
   </si>
   <si>
     <t>0.247***</t>
   </si>
   <si>
-    <t>0.198***</t>
-  </si>
-  <si>
-    <t>0.197***</t>
-  </si>
-  <si>
-    <t>0.164***</t>
-  </si>
-  <si>
-    <t>0.106***</t>
-  </si>
-  <si>
     <t>0.096**</t>
   </si>
   <si>
-    <t>0.077**</t>
-  </si>
-  <si>
-    <t>0.054*</t>
-  </si>
-  <si>
-    <t>0.051*</t>
-  </si>
-  <si>
-    <t>0.376***</t>
-  </si>
-  <si>
-    <t>0.249***</t>
-  </si>
-  <si>
-    <t>0.173***</t>
-  </si>
-  <si>
-    <t>0.113*</t>
-  </si>
-  <si>
-    <t>-0.049*</t>
-  </si>
-  <si>
-    <t>-0.029*</t>
-  </si>
-  <si>
-    <t>0.047*</t>
-  </si>
-  <si>
-    <t>0.061***</t>
-  </si>
-  <si>
-    <t>0.047**</t>
-  </si>
-  <si>
-    <t>0.541***</t>
-  </si>
-  <si>
-    <t>0.437***</t>
-  </si>
-  <si>
-    <t>0.338***</t>
-  </si>
-  <si>
-    <t>0.187***</t>
-  </si>
-  <si>
-    <t>0.150***</t>
-  </si>
-  <si>
-    <t>0.120**</t>
-  </si>
-  <si>
-    <t>0.102**</t>
-  </si>
-  <si>
-    <t>0.080*</t>
-  </si>
-  <si>
-    <t>0.088**</t>
-  </si>
-  <si>
     <t>0.078**</t>
-  </si>
-  <si>
-    <t>0.064**</t>
-  </si>
-  <si>
-    <t>0.104**</t>
   </si>
   <si>
     <t>Media</t>
@@ -188,64 +95,145 @@
     <t>h</t>
   </si>
   <si>
-    <t>0.313***</t>
+    <t>0.272***</t>
   </si>
   <si>
-    <t>0.255***</t>
+    <t>0.204***</t>
   </si>
   <si>
-    <t>0.171***</t>
+    <t>0.124***</t>
   </si>
   <si>
-    <t>0.110***</t>
+    <t>0.068*</t>
   </si>
   <si>
-    <t>0.086***</t>
+    <t>0.792***</t>
   </si>
   <si>
-    <t>0.791***</t>
+    <t>0.745***</t>
   </si>
   <si>
-    <t>0.750***</t>
+    <t>0.584***</t>
   </si>
   <si>
-    <t>0.598***</t>
+    <t>0.401***</t>
   </si>
   <si>
-    <t>0.409***</t>
+    <t>0.290***</t>
   </si>
   <si>
-    <t>0.304***</t>
+    <t>0.208***</t>
   </si>
   <si>
-    <t>0.227***</t>
+    <t>0.144***</t>
   </si>
   <si>
-    <t>0.163***</t>
+    <t>0.113***</t>
   </si>
   <si>
-    <t>0.089***</t>
+    <t>0.073**</t>
   </si>
   <si>
-    <t>0.055*</t>
+    <t>0.053*</t>
   </si>
   <si>
-    <t>0.039*</t>
+    <t>0.043*</t>
   </si>
   <si>
-    <t>1.569***</t>
+    <t>1.326*</t>
   </si>
   <si>
-    <t>1.467***</t>
+    <t>0.914*</t>
   </si>
   <si>
-    <t>1.256***</t>
+    <t>-0.458**</t>
   </si>
   <si>
-    <t>-0.352**</t>
+    <t>-0.234*</t>
   </si>
   <si>
-    <t>-0.251*</t>
+    <t>0.581***</t>
+  </si>
+  <si>
+    <t>0.429***</t>
+  </si>
+  <si>
+    <t>0.378***</t>
+  </si>
+  <si>
+    <t>0.317***</t>
+  </si>
+  <si>
+    <t>0.292***</t>
+  </si>
+  <si>
+    <t>0.176***</t>
+  </si>
+  <si>
+    <t>0.147***</t>
+  </si>
+  <si>
+    <t>0.116***</t>
+  </si>
+  <si>
+    <t>0.071**</t>
+  </si>
+  <si>
+    <t>0.041*</t>
+  </si>
+  <si>
+    <t>0.280**</t>
+  </si>
+  <si>
+    <t>-0.099**</t>
+  </si>
+  <si>
+    <t>-0.066**</t>
+  </si>
+  <si>
+    <t>-0.027*</t>
+  </si>
+  <si>
+    <t>0.050*</t>
+  </si>
+  <si>
+    <t>0.054**</t>
+  </si>
+  <si>
+    <t>0.501***</t>
+  </si>
+  <si>
+    <t>0.391***</t>
+  </si>
+  <si>
+    <t>0.295***</t>
+  </si>
+  <si>
+    <t>0.146**</t>
+  </si>
+  <si>
+    <t>0.111*</t>
+  </si>
+  <si>
+    <t>0.104*</t>
+  </si>
+  <si>
+    <t>0.100*</t>
+  </si>
+  <si>
+    <t>0.092*</t>
+  </si>
+  <si>
+    <t>0.107**</t>
+  </si>
+  <si>
+    <t>0.067**</t>
+  </si>
+  <si>
+    <t>0.123**</t>
+  </si>
+  <si>
+    <t>0.090*</t>
   </si>
 </sst>
 </file>
@@ -519,46 +507,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.80700000000000005</c:v>
+                  <c:v>0.96799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69899999999999995</c:v>
+                  <c:v>0.872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66900000000000004</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58099999999999996</c:v>
+                  <c:v>0.73199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48699999999999999</c:v>
+                  <c:v>0.65600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47099999999999997</c:v>
+                  <c:v>0.56499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43</c:v>
+                  <c:v>0.495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42099999999999999</c:v>
+                  <c:v>0.46100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39100000000000001</c:v>
+                  <c:v>0.43099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34899999999999998</c:v>
+                  <c:v>0.38400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30299999999999999</c:v>
+                  <c:v>0.35599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.188</c:v>
+                  <c:v>0.23899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.121</c:v>
+                  <c:v>0.11700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.252</c:v>
@@ -915,46 +903,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.7749999999999999</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.506</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.216</c:v>
+                  <c:v>1.278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.117</c:v>
+                  <c:v>1.1759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.036</c:v>
+                  <c:v>1.093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98399999999999999</c:v>
+                  <c:v>1.042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88700000000000001</c:v>
+                  <c:v>0.91200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74199999999999999</c:v>
+                  <c:v>0.78300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60499999999999998</c:v>
+                  <c:v>0.65100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55200000000000005</c:v>
+                  <c:v>0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.434</c:v>
+                  <c:v>0.46200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.318</c:v>
+                  <c:v>0.32100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.218</c:v>
+                  <c:v>0.21099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.313</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.38100000000000001</c:v>
@@ -1311,46 +1299,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>8.2759999999999998</c:v>
+                  <c:v>15.125999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0370000000000008</c:v>
+                  <c:v>14.43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4060000000000006</c:v>
+                  <c:v>10.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4039999999999999</c:v>
+                  <c:v>9.2550000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8289999999999997</c:v>
+                  <c:v>7.9489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3179999999999996</c:v>
+                  <c:v>7.3220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1660000000000004</c:v>
+                  <c:v>7.6859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2720000000000002</c:v>
+                  <c:v>6.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5270000000000001</c:v>
+                  <c:v>6.2130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0359999999999996</c:v>
+                  <c:v>5.6440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.496</c:v>
+                  <c:v>5.3079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.29</c:v>
+                  <c:v>4.3289999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.59</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7850000000000001</c:v>
+                  <c:v>5.7380000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>6.1829999999999998</c:v>
@@ -1707,46 +1695,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.333</c:v>
+                  <c:v>1.4510000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.165</c:v>
+                  <c:v>1.2969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.997</c:v>
+                  <c:v>1.133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.877</c:v>
+                  <c:v>1.034</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81</c:v>
+                  <c:v>0.92900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78800000000000003</c:v>
+                  <c:v>0.90500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72799999999999998</c:v>
+                  <c:v>0.84099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71199999999999997</c:v>
+                  <c:v>0.78200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.64100000000000001</c:v>
+                  <c:v>0.69099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57499999999999996</c:v>
+                  <c:v>0.59699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.53600000000000003</c:v>
+                  <c:v>0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46100000000000002</c:v>
+                  <c:v>0.46800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.254</c:v>
+                  <c:v>0.245</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.58599999999999997</c:v>
+                  <c:v>0.58099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.73099999999999998</c:v>
@@ -2103,46 +2091,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.4590000000000001</c:v>
+                  <c:v>2.2930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3129999999999999</c:v>
+                  <c:v>2.1269999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2490000000000001</c:v>
+                  <c:v>1.857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.157</c:v>
+                  <c:v>1.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96299999999999997</c:v>
+                  <c:v>1.5649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93700000000000006</c:v>
+                  <c:v>1.3919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89900000000000002</c:v>
+                  <c:v>1.2729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86299999999999999</c:v>
+                  <c:v>1.1519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81299999999999994</c:v>
+                  <c:v>1.071</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74099999999999999</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70499999999999996</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.54600000000000004</c:v>
+                  <c:v>0.64100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.314</c:v>
+                  <c:v>0.30299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60399999999999998</c:v>
+                  <c:v>0.59899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.35</c:v>
@@ -2484,43 +2472,43 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.49199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42899999999999999</c:v>
+                  <c:v>0.43099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35599999999999998</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69199999999999995</c:v>
+                  <c:v>0.68799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36099999999999999</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32600000000000001</c:v>
+                  <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32400000000000001</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33600000000000002</c:v>
+                  <c:v>0.33200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32300000000000001</c:v>
+                  <c:v>0.317</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32300000000000001</c:v>
+                  <c:v>0.317</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32300000000000001</c:v>
+                  <c:v>0.316</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2865,46 +2853,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.879</c:v>
+                  <c:v>2.0920000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.752</c:v>
+                  <c:v>1.9730000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>1.883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.643</c:v>
+                  <c:v>1.8620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6639999999999999</c:v>
+                  <c:v>1.8720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6080000000000001</c:v>
+                  <c:v>1.7929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.585</c:v>
+                  <c:v>1.7090000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5649999999999999</c:v>
+                  <c:v>1.6930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5409999999999999</c:v>
+                  <c:v>1.6539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2370000000000001</c:v>
+                  <c:v>1.337</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.875</c:v>
+                  <c:v>0.95799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.73099999999999998</c:v>
+                  <c:v>0.747</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55800000000000005</c:v>
+                  <c:v>0.53800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3080000000000001</c:v>
+                  <c:v>1.2969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1.5509999999999999</c:v>
@@ -3261,46 +3249,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>1.976</c:v>
+                  <c:v>2.1190000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7150000000000001</c:v>
+                  <c:v>1.871</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.464</c:v>
+                  <c:v>1.6339999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.19</c:v>
+                  <c:v>1.383</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>1.1910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92</c:v>
+                  <c:v>1.0309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89600000000000002</c:v>
+                  <c:v>0.97799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88200000000000001</c:v>
+                  <c:v>0.93500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.79200000000000004</c:v>
+                  <c:v>0.83699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.71199999999999997</c:v>
+                  <c:v>0.76300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58499999999999996</c:v>
+                  <c:v>0.58299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39800000000000002</c:v>
+                  <c:v>0.40699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.16900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35399999999999998</c:v>
+                  <c:v>0.35099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.40699999999999997</c:v>
@@ -3651,46 +3639,46 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.90200000000000002</c:v>
+                  <c:v>0.92300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88700000000000001</c:v>
+                  <c:v>0.90700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84199999999999997</c:v>
+                  <c:v>0.85699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77600000000000002</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.747</c:v>
+                  <c:v>0.76600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71399999999999997</c:v>
+                  <c:v>0.72299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65500000000000003</c:v>
+                  <c:v>0.66300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63100000000000001</c:v>
+                  <c:v>0.63400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60699999999999998</c:v>
+                  <c:v>0.60799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54300000000000004</c:v>
+                  <c:v>0.54400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.48099999999999998</c:v>
+                  <c:v>0.47799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39</c:v>
+                  <c:v>0.38500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14299999999999999</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.17399999999999999</c:v>
@@ -9543,8 +9531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496513D8-45F4-412F-B325-A911B1FC58A0}">
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="H165" sqref="H165"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9560,27 +9548,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -9596,16 +9584,16 @@
         <v>372</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5">
-        <v>-1.8</v>
+        <v>-3.3</v>
       </c>
       <c r="E3" s="5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F3" s="5">
-        <v>0.80700000000000005</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
@@ -9616,19 +9604,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>-1.7</v>
+        <v>-3.4</v>
       </c>
       <c r="E4" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F4" s="2">
-        <v>0.69899999999999995</v>
+        <v>0.872</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>0</v>
@@ -9639,19 +9627,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>-1.6</v>
+        <v>-3.4</v>
       </c>
       <c r="E5" s="2">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F5" s="2">
-        <v>0.66900000000000004</v>
+        <v>0.81</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>0</v>
@@ -9662,19 +9650,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>-1.7</v>
+        <v>-3.1</v>
       </c>
       <c r="E6" s="2">
         <v>1.7</v>
       </c>
       <c r="F6" s="2">
-        <v>0.58099999999999996</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>0</v>
@@ -9685,19 +9673,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>364</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>372</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>-1.4</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="E7" s="2">
         <v>1.7</v>
       </c>
       <c r="F7" s="2">
-        <v>0.48699999999999999</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
@@ -9708,19 +9696,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>361</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
+        <v>371</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>-1.4</v>
+        <v>-2</v>
       </c>
       <c r="E8" s="2">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F8" s="2">
-        <v>0.47099999999999997</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -9731,19 +9719,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C9" s="2">
-        <v>0.03</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>-1.4</v>
+        <v>-1.8</v>
       </c>
       <c r="E9" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F9" s="2">
-        <v>0.43</v>
+        <v>0.495</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
@@ -9754,19 +9742,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C10" s="2">
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E10" s="2">
         <v>1.2</v>
       </c>
       <c r="F10" s="2">
-        <v>0.42099999999999999</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -9777,19 +9765,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C11" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E11" s="2">
         <v>1.2</v>
       </c>
       <c r="F11" s="2">
-        <v>0.39100000000000001</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>0</v>
@@ -9800,19 +9788,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C12" s="2">
-        <v>1.2E-2</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>-1.1000000000000001</v>
+        <v>-1.4</v>
       </c>
       <c r="E12" s="2">
         <v>1.2</v>
       </c>
       <c r="F12" s="2">
-        <v>0.34899999999999998</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -9823,19 +9811,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C13" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="E13" s="2">
         <v>0.8</v>
       </c>
       <c r="F13" s="2">
-        <v>0.30299999999999999</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -9846,19 +9834,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C14" s="2">
-        <v>-2E-3</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="E14" s="2">
         <v>0.6</v>
       </c>
       <c r="F14" s="2">
-        <v>0.188</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
@@ -9869,10 +9857,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C15" s="2">
-        <v>-8.0000000000000002E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="D15" s="2">
         <v>-0.5</v>
@@ -9881,7 +9869,7 @@
         <v>0.4</v>
       </c>
       <c r="F15" s="2">
-        <v>0.121</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>0</v>
@@ -9892,10 +9880,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2">
-        <v>-1.9E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D16" s="2">
         <v>-1.2</v>
@@ -9904,7 +9892,7 @@
         <v>0.6</v>
       </c>
       <c r="F16" s="2">
-        <v>0.26800000000000002</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>0</v>
@@ -10027,7 +10015,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -10043,16 +10031,16 @@
         <v>372</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2">
         <v>-4.9000000000000004</v>
       </c>
       <c r="E23" s="2">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="F23" s="2">
-        <v>1.7749999999999999</v>
+        <v>1.83</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>0</v>
@@ -10063,19 +10051,19 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2">
         <v>-3.9</v>
       </c>
       <c r="E24" s="2">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="F24" s="2">
-        <v>1.506</v>
+        <v>1.56</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>0</v>
@@ -10086,10 +10074,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2">
         <v>-2.1</v>
@@ -10098,7 +10086,7 @@
         <v>3.9</v>
       </c>
       <c r="F25" s="2">
-        <v>1.216</v>
+        <v>1.278</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>0</v>
@@ -10109,19 +10097,19 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2">
         <v>-2.1</v>
       </c>
       <c r="E26" s="2">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="F26" s="2">
-        <v>1.117</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>0</v>
@@ -10132,19 +10120,19 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>-2.1</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="E27" s="2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F27" s="2">
-        <v>1.036</v>
+        <v>1.093</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>0</v>
@@ -10155,19 +10143,19 @@
         <v>6</v>
       </c>
       <c r="B28" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
-        <v>-2.2999999999999998</v>
+        <v>-2.4</v>
       </c>
       <c r="E28" s="2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F28" s="2">
-        <v>0.98399999999999999</v>
+        <v>1.042</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>0</v>
@@ -10178,19 +10166,19 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
-        <v>-1.8</v>
+        <v>-2.4</v>
       </c>
       <c r="E29" s="2">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="F29" s="2">
-        <v>0.88700000000000001</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>0</v>
@@ -10201,19 +10189,19 @@
         <v>8</v>
       </c>
       <c r="B30" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="E30" s="2">
         <v>2.9</v>
       </c>
       <c r="F30" s="2">
-        <v>0.74199999999999999</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>0</v>
@@ -10224,19 +10212,19 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
-        <v>-1.7</v>
+        <v>-2</v>
       </c>
       <c r="E31" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="F31" s="2">
-        <v>0.60499999999999998</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>0</v>
@@ -10247,19 +10235,19 @@
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="F32" s="2">
-        <v>0.55200000000000005</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>0</v>
@@ -10270,19 +10258,19 @@
         <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="E33" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F33" s="2">
-        <v>0.434</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>0</v>
@@ -10293,19 +10281,19 @@
         <v>12</v>
       </c>
       <c r="B34" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D34" s="2">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E34" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="F34" s="2">
-        <v>0.318</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>0</v>
@@ -10316,7 +10304,7 @@
         <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="C35" s="2">
         <v>-1E-3</v>
@@ -10328,7 +10316,7 @@
         <v>0.8</v>
       </c>
       <c r="F35" s="2">
-        <v>0.218</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>0</v>
@@ -10339,7 +10327,7 @@
         <v>14</v>
       </c>
       <c r="B36" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2">
         <v>-1.7000000000000001E-2</v>
@@ -10351,7 +10339,7 @@
         <v>1.6</v>
       </c>
       <c r="F36" s="2">
-        <v>0.313</v>
+        <v>0.31</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>0</v>
@@ -10474,7 +10462,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -10490,16 +10478,16 @@
         <v>372</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
-        <v>-32</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="E43" s="2">
-        <v>21.4</v>
+        <v>23.5</v>
       </c>
       <c r="F43" s="2">
-        <v>8.2759999999999998</v>
+        <v>15.125999999999999</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>0</v>
@@ -10510,19 +10498,19 @@
         <v>2</v>
       </c>
       <c r="B44" s="1">
-        <v>370</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>66</v>
+        <v>372</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.18</v>
       </c>
       <c r="D44" s="2">
-        <v>-26.8</v>
+        <v>-38.799999999999997</v>
       </c>
       <c r="E44" s="2">
-        <v>21</v>
+        <v>23.5</v>
       </c>
       <c r="F44" s="2">
-        <v>8.0370000000000008</v>
+        <v>14.43</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>0</v>
@@ -10533,19 +10521,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D45" s="2">
-        <v>-26.7</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="E45" s="2">
-        <v>21.4</v>
+        <v>23.5</v>
       </c>
       <c r="F45" s="2">
-        <v>8.4060000000000006</v>
+        <v>10.24</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>0</v>
@@ -10556,19 +10544,19 @@
         <v>4</v>
       </c>
       <c r="B46" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2">
-        <v>0.59599999999999997</v>
+        <v>0.126</v>
       </c>
       <c r="D46" s="2">
-        <v>-26.7</v>
+        <v>-35.700000000000003</v>
       </c>
       <c r="E46" s="2">
-        <v>20.399999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="F46" s="2">
-        <v>7.4039999999999999</v>
+        <v>9.2550000000000008</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>0</v>
@@ -10579,19 +10567,19 @@
         <v>5</v>
       </c>
       <c r="B47" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C47" s="2">
-        <v>0.20899999999999999</v>
+        <v>-0.32100000000000001</v>
       </c>
       <c r="D47" s="2">
-        <v>-25.3</v>
+        <v>-35.6</v>
       </c>
       <c r="E47" s="2">
-        <v>12.2</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F47" s="2">
-        <v>5.8289999999999997</v>
+        <v>7.9489999999999998</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>0</v>
@@ -10602,19 +10590,19 @@
         <v>6</v>
       </c>
       <c r="B48" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2">
-        <v>0.128</v>
+        <v>-0.40600000000000003</v>
       </c>
       <c r="D48" s="2">
-        <v>-25.3</v>
+        <v>-32.4</v>
       </c>
       <c r="E48" s="2">
-        <v>10.7</v>
+        <v>11.6</v>
       </c>
       <c r="F48" s="2">
-        <v>5.3179999999999996</v>
+        <v>7.3220000000000001</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>0</v>
@@ -10625,19 +10613,19 @@
         <v>7</v>
       </c>
       <c r="B49" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2">
-        <v>0.315</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
       <c r="D49" s="2">
-        <v>-24.4</v>
+        <v>-30.8</v>
       </c>
       <c r="E49" s="2">
-        <v>10.7</v>
+        <v>12.9</v>
       </c>
       <c r="F49" s="2">
-        <v>6.1660000000000004</v>
+        <v>7.6859999999999999</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>0</v>
@@ -10648,19 +10636,19 @@
         <v>8</v>
       </c>
       <c r="B50" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2">
-        <v>-0.184</v>
+        <v>-0.48699999999999999</v>
       </c>
       <c r="D50" s="2">
-        <v>-25.3</v>
+        <v>-32.4</v>
       </c>
       <c r="E50" s="2">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="F50" s="2">
-        <v>5.2720000000000002</v>
+        <v>6.84</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>0</v>
@@ -10671,19 +10659,19 @@
         <v>9</v>
       </c>
       <c r="B51" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2">
-        <v>-0.109</v>
+        <v>-0.38800000000000001</v>
       </c>
       <c r="D51" s="2">
-        <v>-24.2</v>
+        <v>-26.6</v>
       </c>
       <c r="E51" s="2">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="F51" s="2">
-        <v>4.5270000000000001</v>
+        <v>6.2130000000000001</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>0</v>
@@ -10694,19 +10682,19 @@
         <v>10</v>
       </c>
       <c r="B52" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C52" s="2">
-        <v>-9.4E-2</v>
+        <v>-0.371</v>
       </c>
       <c r="D52" s="2">
-        <v>-19.7</v>
+        <v>-26.6</v>
       </c>
       <c r="E52" s="2">
         <v>9.9</v>
       </c>
       <c r="F52" s="2">
-        <v>4.0359999999999996</v>
+        <v>5.6440000000000001</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>0</v>
@@ -10717,19 +10705,19 @@
         <v>11</v>
       </c>
       <c r="B53" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2">
-        <v>-0.13900000000000001</v>
+        <v>-0.442</v>
       </c>
       <c r="D53" s="2">
-        <v>-19.7</v>
+        <v>-26.6</v>
       </c>
       <c r="E53" s="2">
         <v>7.8</v>
       </c>
       <c r="F53" s="2">
-        <v>3.496</v>
+        <v>5.3079999999999998</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>0</v>
@@ -10740,19 +10728,19 @@
         <v>12</v>
       </c>
       <c r="B54" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2">
-        <v>-19.2</v>
+        <v>-25.3</v>
       </c>
       <c r="E54" s="2">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="F54" s="2">
-        <v>3.29</v>
+        <v>4.3289999999999997</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>0</v>
@@ -10763,10 +10751,10 @@
         <v>13</v>
       </c>
       <c r="B55" s="1">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D55" s="2">
         <v>-13.1</v>
@@ -10775,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="2">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>0</v>
@@ -10786,10 +10774,10 @@
         <v>14</v>
       </c>
       <c r="B56" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2">
-        <v>-1.0640000000000001</v>
+        <v>-1.0469999999999999</v>
       </c>
       <c r="D56" s="2">
         <v>-32.4</v>
@@ -10798,7 +10786,7 @@
         <v>6.4</v>
       </c>
       <c r="F56" s="2">
-        <v>5.7850000000000001</v>
+        <v>5.7380000000000004</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>0</v>
@@ -10921,7 +10909,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -10937,16 +10925,16 @@
         <v>372</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D63" s="2">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="E63" s="2">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="F63" s="2">
-        <v>1.333</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>0</v>
@@ -10957,19 +10945,19 @@
         <v>2</v>
       </c>
       <c r="B64" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D64" s="2">
         <v>-3.1</v>
       </c>
       <c r="E64" s="2">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="F64" s="2">
-        <v>1.165</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>0</v>
@@ -10980,19 +10968,19 @@
         <v>3</v>
       </c>
       <c r="B65" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D65" s="2">
         <v>-2.4</v>
       </c>
       <c r="E65" s="2">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F65" s="2">
-        <v>0.997</v>
+        <v>1.133</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>0</v>
@@ -11003,19 +10991,19 @@
         <v>4</v>
       </c>
       <c r="B66" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2">
         <v>-2.1</v>
       </c>
       <c r="E66" s="2">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="F66" s="2">
-        <v>0.877</v>
+        <v>1.034</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>0</v>
@@ -11026,19 +11014,19 @@
         <v>5</v>
       </c>
       <c r="B67" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D67" s="2">
         <v>-1.9</v>
       </c>
       <c r="E67" s="2">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="F67" s="2">
-        <v>0.81</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>0</v>
@@ -11049,19 +11037,19 @@
         <v>6</v>
       </c>
       <c r="B68" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2">
         <v>-1.9</v>
       </c>
       <c r="E68" s="2">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="F68" s="2">
-        <v>0.78800000000000003</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>0</v>
@@ -11072,19 +11060,19 @@
         <v>7</v>
       </c>
       <c r="B69" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D69" s="2">
         <v>-1.9</v>
       </c>
       <c r="E69" s="2">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="F69" s="2">
-        <v>0.72799999999999998</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>0</v>
@@ -11095,10 +11083,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D70" s="2">
         <v>-1.7</v>
@@ -11107,7 +11095,7 @@
         <v>4</v>
       </c>
       <c r="F70" s="2">
-        <v>0.71199999999999997</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>0</v>
@@ -11118,10 +11106,10 @@
         <v>9</v>
       </c>
       <c r="B71" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D71" s="2">
         <v>-1.3</v>
@@ -11130,7 +11118,7 @@
         <v>3.7</v>
       </c>
       <c r="F71" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>0</v>
@@ -11141,10 +11129,10 @@
         <v>10</v>
       </c>
       <c r="B72" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D72" s="2">
         <v>-1</v>
@@ -11153,7 +11141,7 @@
         <v>3.1</v>
       </c>
       <c r="F72" s="2">
-        <v>0.57499999999999996</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>0</v>
@@ -11164,10 +11152,10 @@
         <v>11</v>
       </c>
       <c r="B73" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D73" s="2">
         <v>-0.7</v>
@@ -11176,7 +11164,7 @@
         <v>3.1</v>
       </c>
       <c r="F73" s="2">
-        <v>0.53600000000000003</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>0</v>
@@ -11187,19 +11175,19 @@
         <v>12</v>
       </c>
       <c r="B74" s="1">
-        <v>343</v>
-      </c>
-      <c r="C74" s="2">
-        <v>3.1E-2</v>
+        <v>365</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D74" s="2">
         <v>-0.6</v>
       </c>
       <c r="E74" s="2">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="F74" s="2">
-        <v>0.46100000000000002</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>0</v>
@@ -11210,7 +11198,7 @@
         <v>13</v>
       </c>
       <c r="B75" s="1">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C75" s="2">
         <v>2E-3</v>
@@ -11222,7 +11210,7 @@
         <v>0.3</v>
       </c>
       <c r="F75" s="2">
-        <v>0.254</v>
+        <v>0.245</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>0</v>
@@ -11233,7 +11221,7 @@
         <v>14</v>
       </c>
       <c r="B76" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2">
         <v>2.1999999999999999E-2</v>
@@ -11245,7 +11233,7 @@
         <v>3.1</v>
       </c>
       <c r="F76" s="2">
-        <v>0.58599999999999997</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>0</v>
@@ -11368,7 +11356,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -11384,16 +11372,16 @@
         <v>372</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D83" s="2">
-        <v>-5</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="E83" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="F83" s="2">
-        <v>1.4590000000000001</v>
+        <v>2.2930000000000001</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>0</v>
@@ -11404,19 +11392,19 @@
         <v>2</v>
       </c>
       <c r="B84" s="1">
-        <v>370</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>372</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.11899999999999999</v>
       </c>
       <c r="D84" s="2">
-        <v>-4.9000000000000004</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="E84" s="2">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="F84" s="2">
-        <v>1.3129999999999999</v>
+        <v>2.1269999999999998</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>0</v>
@@ -11427,19 +11415,19 @@
         <v>3</v>
       </c>
       <c r="B85" s="1">
-        <v>368</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>16</v>
+        <v>372</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D85" s="2">
-        <v>-4.9000000000000004</v>
+        <v>-7.7</v>
       </c>
       <c r="E85" s="2">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="F85" s="2">
-        <v>1.2490000000000001</v>
+        <v>1.857</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>0</v>
@@ -11450,19 +11438,19 @@
         <v>4</v>
       </c>
       <c r="B86" s="1">
-        <v>366</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>372</v>
+      </c>
+      <c r="C86" s="2">
+        <v>-2.7E-2</v>
       </c>
       <c r="D86" s="2">
-        <v>-4.7</v>
+        <v>-7.5</v>
       </c>
       <c r="E86" s="2">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="F86" s="2">
-        <v>1.157</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>0</v>
@@ -11473,19 +11461,19 @@
         <v>5</v>
       </c>
       <c r="B87" s="1">
-        <v>364</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>2</v>
+        <v>372</v>
+      </c>
+      <c r="C87" s="2">
+        <v>-1E-3</v>
       </c>
       <c r="D87" s="2">
-        <v>-3.3</v>
+        <v>-7.5</v>
       </c>
       <c r="E87" s="2">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="F87" s="2">
-        <v>0.96299999999999997</v>
+        <v>1.5649999999999999</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>0</v>
@@ -11496,19 +11484,19 @@
         <v>6</v>
       </c>
       <c r="B88" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C88" s="2">
-        <v>6.8000000000000005E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="D88" s="2">
-        <v>-3.3</v>
+        <v>-7.5</v>
       </c>
       <c r="E88" s="2">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="F88" s="2">
-        <v>0.93700000000000006</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>0</v>
@@ -11519,19 +11507,19 @@
         <v>7</v>
       </c>
       <c r="B89" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C89" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="D89" s="2">
-        <v>-3.5</v>
+        <v>-6.8</v>
       </c>
       <c r="E89" s="2">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="F89" s="2">
-        <v>0.89900000000000002</v>
+        <v>1.2729999999999999</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>0</v>
@@ -11542,19 +11530,19 @@
         <v>8</v>
       </c>
       <c r="B90" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C90" s="2">
-        <v>2.4E-2</v>
+        <v>-5.1999999999999998E-2</v>
       </c>
       <c r="D90" s="2">
-        <v>-3.5</v>
+        <v>-5.6</v>
       </c>
       <c r="E90" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="F90" s="2">
-        <v>0.86299999999999999</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>0</v>
@@ -11565,19 +11553,19 @@
         <v>9</v>
       </c>
       <c r="B91" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C91" s="2">
-        <v>-1.4E-2</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="D91" s="2">
-        <v>-3.5</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="E91" s="2">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F91" s="2">
-        <v>0.81299999999999994</v>
+        <v>1.071</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>0</v>
@@ -11588,19 +11576,19 @@
         <v>10</v>
       </c>
       <c r="B92" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C92" s="2">
-        <v>-2.1999999999999999E-2</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="D92" s="2">
-        <v>-2.9</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E92" s="2">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="F92" s="2">
-        <v>0.74099999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>0</v>
@@ -11611,19 +11599,19 @@
         <v>11</v>
       </c>
       <c r="B93" s="1">
-        <v>346</v>
-      </c>
-      <c r="C93" s="2">
-        <v>-4.2000000000000003E-2</v>
+        <v>366</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D93" s="2">
-        <v>-2.9</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E93" s="2">
         <v>1.6</v>
       </c>
       <c r="F93" s="2">
-        <v>0.70499999999999996</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>0</v>
@@ -11634,19 +11622,19 @@
         <v>12</v>
       </c>
       <c r="B94" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D94" s="2">
-        <v>-1.9</v>
+        <v>-2.9</v>
       </c>
       <c r="E94" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="F94" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>0</v>
@@ -11657,10 +11645,10 @@
         <v>13</v>
       </c>
       <c r="B95" s="1">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D95" s="2">
         <v>-1.4</v>
@@ -11669,7 +11657,7 @@
         <v>0.4</v>
       </c>
       <c r="F95" s="2">
-        <v>0.314</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>0</v>
@@ -11680,10 +11668,10 @@
         <v>14</v>
       </c>
       <c r="B96" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C96" s="2">
-        <v>-8.5000000000000006E-2</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="D96" s="2">
         <v>-4.0999999999999996</v>
@@ -11692,7 +11680,7 @@
         <v>0.6</v>
       </c>
       <c r="F96" s="2">
-        <v>0.60399999999999998</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>0</v>
@@ -11815,7 +11803,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -11831,16 +11819,16 @@
         <v>262</v>
       </c>
       <c r="C103" s="2">
-        <v>1.9E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D103" s="2">
         <v>-1.3</v>
       </c>
       <c r="E103" s="2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F103" s="2">
-        <v>0.48499999999999999</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>0</v>
@@ -11851,10 +11839,10 @@
         <v>2</v>
       </c>
       <c r="B104" s="1">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D104" s="2">
         <v>-1</v>
@@ -11863,7 +11851,7 @@
         <v>1.3</v>
       </c>
       <c r="F104" s="2">
-        <v>0.42899999999999999</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>0</v>
@@ -11874,10 +11862,10 @@
         <v>3</v>
       </c>
       <c r="B105" s="1">
-        <v>258</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>20</v>
+        <v>260</v>
+      </c>
+      <c r="C105" s="2">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D105" s="2">
         <v>-0.7</v>
@@ -11897,10 +11885,10 @@
         <v>4</v>
       </c>
       <c r="B106" s="1">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D106" s="2">
         <v>-0.3</v>
@@ -11909,7 +11897,7 @@
         <v>0.9</v>
       </c>
       <c r="F106" s="2">
-        <v>0.35599999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>0</v>
@@ -11920,19 +11908,19 @@
         <v>5</v>
       </c>
       <c r="B107" s="1">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C107" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D107" s="2">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="E107" s="2">
         <v>0.9</v>
       </c>
       <c r="F107" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>0</v>
@@ -11943,19 +11931,19 @@
         <v>6</v>
       </c>
       <c r="B108" s="1">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D108" s="2">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E108" s="2">
         <v>0.9</v>
       </c>
       <c r="F108" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>0</v>
@@ -11966,10 +11954,10 @@
         <v>7</v>
       </c>
       <c r="B109" s="1">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C109" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D109" s="2">
         <v>-0.2</v>
@@ -11978,7 +11966,7 @@
         <v>0.5</v>
       </c>
       <c r="F109" s="2">
-        <v>0.32600000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>0</v>
@@ -11989,10 +11977,10 @@
         <v>8</v>
       </c>
       <c r="B110" s="1">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C110" s="2">
-        <v>2.9000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D110" s="2">
         <v>-0.2</v>
@@ -12001,7 +11989,7 @@
         <v>0.4</v>
       </c>
       <c r="F110" s="2">
-        <v>0.32400000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>0</v>
@@ -12012,10 +12000,10 @@
         <v>9</v>
       </c>
       <c r="B111" s="1">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C111" s="2">
-        <v>3.3000000000000002E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D111" s="2">
         <v>-0.2</v>
@@ -12024,7 +12012,7 @@
         <v>0.5</v>
       </c>
       <c r="F111" s="2">
-        <v>0.33600000000000002</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>0</v>
@@ -12035,19 +12023,19 @@
         <v>10</v>
       </c>
       <c r="B112" s="1">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C112" s="2">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D112" s="2">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="E112" s="2">
         <v>0.4</v>
       </c>
       <c r="F112" s="2">
-        <v>0.32300000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>0</v>
@@ -12058,10 +12046,10 @@
         <v>11</v>
       </c>
       <c r="B113" s="1">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C113" s="2">
-        <v>2.5999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D113" s="2">
         <v>-0.1</v>
@@ -12070,7 +12058,7 @@
         <v>0.4</v>
       </c>
       <c r="F113" s="2">
-        <v>0.32300000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>0</v>
@@ -12081,10 +12069,10 @@
         <v>12</v>
       </c>
       <c r="B114" s="1">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C114" s="2">
-        <v>2.4E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D114" s="2">
         <v>-0.1</v>
@@ -12093,7 +12081,7 @@
         <v>0.3</v>
       </c>
       <c r="F114" s="2">
-        <v>0.32300000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>0</v>
@@ -12104,7 +12092,7 @@
         <v>13</v>
       </c>
       <c r="B115" s="1">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C115" s="2">
         <v>1E-3</v>
@@ -12116,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="2">
-        <v>2.1000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>0</v>
@@ -12147,7 +12135,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -12163,16 +12151,16 @@
         <v>372</v>
       </c>
       <c r="C118" s="2">
-        <v>7.3999999999999996E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D118" s="2">
         <v>-7.2</v>
       </c>
       <c r="E118" s="2">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="F118" s="2">
-        <v>1.879</v>
+        <v>2.0920000000000001</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>0</v>
@@ -12183,19 +12171,19 @@
         <v>2</v>
       </c>
       <c r="B119" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C119" s="2">
-        <v>4.7E-2</v>
+        <v>0.105</v>
       </c>
       <c r="D119" s="2">
         <v>-6.9</v>
       </c>
       <c r="E119" s="2">
-        <v>5.7</v>
+        <v>8.1</v>
       </c>
       <c r="F119" s="2">
-        <v>1.752</v>
+        <v>1.9730000000000001</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>0</v>
@@ -12206,19 +12194,19 @@
         <v>3</v>
       </c>
       <c r="B120" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C120" s="2">
-        <v>2.1000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D120" s="2">
         <v>-6.9</v>
       </c>
       <c r="E120" s="2">
-        <v>4.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="F120" s="2">
-        <v>1.6659999999999999</v>
+        <v>1.883</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>0</v>
@@ -12229,19 +12217,19 @@
         <v>4</v>
       </c>
       <c r="B121" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C121" s="2">
-        <v>-1.0999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="D121" s="2">
         <v>-7.1</v>
       </c>
       <c r="E121" s="2">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="F121" s="2">
-        <v>1.643</v>
+        <v>1.8620000000000001</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>0</v>
@@ -12252,19 +12240,19 @@
         <v>5</v>
       </c>
       <c r="B122" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C122" s="2">
-        <v>-0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D122" s="2">
         <v>-7.1</v>
       </c>
       <c r="E122" s="2">
-        <v>4.0999999999999996</v>
+        <v>6.9</v>
       </c>
       <c r="F122" s="2">
-        <v>1.6639999999999999</v>
+        <v>1.8720000000000001</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>0</v>
@@ -12275,19 +12263,19 @@
         <v>6</v>
       </c>
       <c r="B123" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C123" s="2">
-        <v>-6.7000000000000004E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D123" s="2">
         <v>-7.1</v>
       </c>
       <c r="E123" s="2">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="F123" s="2">
-        <v>1.6080000000000001</v>
+        <v>1.7929999999999999</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>0</v>
@@ -12298,19 +12286,19 @@
         <v>7</v>
       </c>
       <c r="B124" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C124" s="2">
-        <v>-0.10100000000000001</v>
+        <v>-0.05</v>
       </c>
       <c r="D124" s="2">
         <v>-7.1</v>
       </c>
       <c r="E124" s="2">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="F124" s="2">
-        <v>1.585</v>
+        <v>1.7090000000000001</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>0</v>
@@ -12321,19 +12309,19 @@
         <v>8</v>
       </c>
       <c r="B125" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C125" s="2">
-        <v>-9.0999999999999998E-2</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="D125" s="2">
         <v>-7.1</v>
       </c>
       <c r="E125" s="2">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="F125" s="2">
-        <v>1.5649999999999999</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>0</v>
@@ -12344,19 +12332,19 @@
         <v>9</v>
       </c>
       <c r="B126" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C126" s="2">
-        <v>-0.124</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="D126" s="2">
         <v>-7.1</v>
       </c>
       <c r="E126" s="2">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="F126" s="2">
-        <v>1.5409999999999999</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>0</v>
@@ -12367,19 +12355,19 @@
         <v>10</v>
       </c>
       <c r="B127" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C127" s="2">
-        <v>-7.6999999999999999E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="D127" s="2">
         <v>-6.9</v>
       </c>
       <c r="E127" s="2">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F127" s="2">
-        <v>1.2370000000000001</v>
+        <v>1.337</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>0</v>
@@ -12390,19 +12378,19 @@
         <v>11</v>
       </c>
       <c r="B128" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C128" s="2">
-        <v>-5.2999999999999999E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="D128" s="2">
         <v>-5.9</v>
       </c>
       <c r="E128" s="2">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F128" s="2">
-        <v>0.875</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>0</v>
@@ -12413,19 +12401,19 @@
         <v>12</v>
       </c>
       <c r="B129" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C129" s="2">
-        <v>-2.1999999999999999E-2</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="D129" s="2">
         <v>-1.7</v>
       </c>
       <c r="E129" s="2">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F129" s="2">
-        <v>0.73099999999999998</v>
+        <v>0.747</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>0</v>
@@ -12436,7 +12424,7 @@
         <v>13</v>
       </c>
       <c r="B130" s="1">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C130" s="2">
         <v>-6.0000000000000001E-3</v>
@@ -12448,7 +12436,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="2">
-        <v>0.55800000000000005</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>0</v>
@@ -12459,7 +12447,7 @@
         <v>14</v>
       </c>
       <c r="B131" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C131" s="2">
         <v>-8.0000000000000002E-3</v>
@@ -12471,7 +12459,7 @@
         <v>5.3</v>
       </c>
       <c r="F131" s="2">
-        <v>1.3080000000000001</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>0</v>
@@ -12594,7 +12582,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -12610,16 +12598,16 @@
         <v>372</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D138" s="2">
-        <v>-4.0999999999999996</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="E138" s="2">
         <v>10.6</v>
       </c>
       <c r="F138" s="2">
-        <v>1.976</v>
+        <v>2.1190000000000002</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>0</v>
@@ -12630,19 +12618,19 @@
         <v>2</v>
       </c>
       <c r="B139" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D139" s="2">
-        <v>-3.5</v>
+        <v>-4.2</v>
       </c>
       <c r="E139" s="2">
         <v>6.5</v>
       </c>
       <c r="F139" s="2">
-        <v>1.7150000000000001</v>
+        <v>1.871</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>0</v>
@@ -12653,19 +12641,19 @@
         <v>3</v>
       </c>
       <c r="B140" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D140" s="2">
-        <v>-3.2</v>
+        <v>-4.2</v>
       </c>
       <c r="E140" s="2">
         <v>6.2</v>
       </c>
       <c r="F140" s="2">
-        <v>1.464</v>
+        <v>1.6339999999999999</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>0</v>
@@ -12676,19 +12664,19 @@
         <v>4</v>
       </c>
       <c r="B141" s="1">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D141" s="2">
-        <v>-3.2</v>
+        <v>-4.2</v>
       </c>
       <c r="E141" s="2">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="F141" s="2">
-        <v>1.19</v>
+        <v>1.383</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>0</v>
@@ -12699,19 +12687,19 @@
         <v>5</v>
       </c>
       <c r="B142" s="1">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D142" s="2">
-        <v>-2.7</v>
+        <v>-3.7</v>
       </c>
       <c r="E142" s="2">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F142" s="2">
-        <v>0.96</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>0</v>
@@ -12722,19 +12710,19 @@
         <v>6</v>
       </c>
       <c r="B143" s="1">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D143" s="2">
-        <v>-2.6</v>
+        <v>-3.2</v>
       </c>
       <c r="E143" s="2">
         <v>3.7</v>
       </c>
       <c r="F143" s="2">
-        <v>0.92</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>0</v>
@@ -12745,19 +12733,19 @@
         <v>7</v>
       </c>
       <c r="B144" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D144" s="2">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="E144" s="2">
         <v>3.7</v>
       </c>
       <c r="F144" s="2">
-        <v>0.89600000000000002</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>0</v>
@@ -12768,19 +12756,19 @@
         <v>8</v>
       </c>
       <c r="B145" s="1">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D145" s="2">
-        <v>-2.6</v>
+        <v>-2.8</v>
       </c>
       <c r="E145" s="2">
         <v>3.7</v>
       </c>
       <c r="F145" s="2">
-        <v>0.88200000000000001</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>0</v>
@@ -12791,10 +12779,10 @@
         <v>9</v>
       </c>
       <c r="B146" s="1">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D146" s="2">
         <v>-2.2999999999999998</v>
@@ -12803,7 +12791,7 @@
         <v>3.7</v>
       </c>
       <c r="F146" s="2">
-        <v>0.79200000000000004</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>0</v>
@@ -12814,10 +12802,10 @@
         <v>10</v>
       </c>
       <c r="B147" s="1">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D147" s="2">
         <v>-1.5</v>
@@ -12826,7 +12814,7 @@
         <v>3.7</v>
       </c>
       <c r="F147" s="2">
-        <v>0.71199999999999997</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>0</v>
@@ -12837,10 +12825,10 @@
         <v>11</v>
       </c>
       <c r="B148" s="1">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D148" s="2">
         <v>-1.4</v>
@@ -12849,7 +12837,7 @@
         <v>2.5</v>
       </c>
       <c r="F148" s="2">
-        <v>0.58499999999999996</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>0</v>
@@ -12860,19 +12848,19 @@
         <v>12</v>
       </c>
       <c r="B149" s="1">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C149" s="2">
-        <v>2.4E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D149" s="2">
         <v>-0.7</v>
       </c>
       <c r="E149" s="2">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="F149" s="2">
-        <v>0.39800000000000002</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>0</v>
@@ -12883,10 +12871,10 @@
         <v>13</v>
       </c>
       <c r="B150" s="1">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C150" s="2">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D150" s="2">
         <v>-0.3</v>
@@ -12895,7 +12883,7 @@
         <v>0.4</v>
       </c>
       <c r="F150" s="2">
-        <v>0.17499999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>0</v>
@@ -12906,10 +12894,10 @@
         <v>14</v>
       </c>
       <c r="B151" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C151" s="2">
-        <v>5.6000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D151" s="2">
         <v>-0.8</v>
@@ -12918,7 +12906,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F151" s="2">
-        <v>0.35399999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>0</v>
@@ -13041,7 +13029,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -13057,7 +13045,7 @@
         <v>332</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D158" s="5">
         <v>-2.4</v>
@@ -13066,7 +13054,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F158" s="5">
-        <v>0.90200000000000002</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>0</v>
@@ -13077,10 +13065,10 @@
         <v>2</v>
       </c>
       <c r="B159" s="1">
-        <v>329</v>
-      </c>
-      <c r="C159" s="2">
-        <v>7.8E-2</v>
+        <v>331</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="D159" s="2">
         <v>-2.2000000000000002</v>
@@ -13089,7 +13077,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F159" s="2">
-        <v>0.88700000000000001</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>0</v>
@@ -13100,10 +13088,10 @@
         <v>3</v>
       </c>
       <c r="B160" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C160" s="2">
-        <v>0.02</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D160" s="2">
         <v>-2.1</v>
@@ -13112,7 +13100,7 @@
         <v>2.1</v>
       </c>
       <c r="F160" s="2">
-        <v>0.84199999999999997</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>0</v>
@@ -13123,10 +13111,10 @@
         <v>4</v>
       </c>
       <c r="B161" s="1">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C161" s="2">
-        <v>-1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D161" s="2">
         <v>-1.9</v>
@@ -13135,7 +13123,7 @@
         <v>1.8</v>
       </c>
       <c r="F161" s="2">
-        <v>0.77600000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>0</v>
@@ -13146,10 +13134,10 @@
         <v>5</v>
       </c>
       <c r="B162" s="1">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C162" s="2">
-        <v>-3.3000000000000002E-2</v>
+        <v>-2.7E-2</v>
       </c>
       <c r="D162" s="2">
         <v>-1.9</v>
@@ -13158,7 +13146,7 @@
         <v>1.8</v>
       </c>
       <c r="F162" s="2">
-        <v>0.747</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>0</v>
@@ -13169,10 +13157,10 @@
         <v>6</v>
       </c>
       <c r="B163" s="1">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C163" s="2">
-        <v>-4.1000000000000002E-2</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="D163" s="2">
         <v>-1.9</v>
@@ -13181,7 +13169,7 @@
         <v>1.8</v>
       </c>
       <c r="F163" s="2">
-        <v>0.71399999999999997</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>0</v>
@@ -13192,10 +13180,10 @@
         <v>7</v>
       </c>
       <c r="B164" s="1">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C164" s="2">
-        <v>-3.4000000000000002E-2</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="D164" s="2">
         <v>-1.9</v>
@@ -13204,7 +13192,7 @@
         <v>1.8</v>
       </c>
       <c r="F164" s="2">
-        <v>0.65500000000000003</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>0</v>
@@ -13215,10 +13203,10 @@
         <v>8</v>
       </c>
       <c r="B165" s="1">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C165" s="2">
-        <v>-3.9E-2</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="D165" s="2">
         <v>-1.9</v>
@@ -13227,7 +13215,7 @@
         <v>1.8</v>
       </c>
       <c r="F165" s="2">
-        <v>0.63100000000000001</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>0</v>
@@ -13238,10 +13226,10 @@
         <v>9</v>
       </c>
       <c r="B166" s="1">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C166" s="2">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="D166" s="2">
         <v>-1.8</v>
@@ -13250,7 +13238,7 @@
         <v>1.8</v>
       </c>
       <c r="F166" s="2">
-        <v>0.60699999999999998</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>0</v>
@@ -13261,10 +13249,10 @@
         <v>10</v>
       </c>
       <c r="B167" s="1">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C167" s="2">
-        <v>-8.9999999999999993E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D167" s="2">
         <v>-1.7</v>
@@ -13273,7 +13261,7 @@
         <v>1.8</v>
       </c>
       <c r="F167" s="2">
-        <v>0.54300000000000004</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>0</v>
@@ -13284,19 +13272,19 @@
         <v>11</v>
       </c>
       <c r="B168" s="1">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C168" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D168" s="2">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="E168" s="2">
         <v>1.8</v>
       </c>
       <c r="F168" s="2">
-        <v>0.48099999999999998</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>0</v>
@@ -13307,19 +13295,19 @@
         <v>12</v>
       </c>
       <c r="B169" s="1">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="C169" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D169" s="2">
         <v>-0.8</v>
       </c>
       <c r="E169" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F169" s="2">
-        <v>0.39</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>0</v>
@@ -13330,19 +13318,19 @@
         <v>13</v>
       </c>
       <c r="B170" s="1">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="C170" s="2">
         <v>-1E-3</v>
       </c>
       <c r="D170" s="2">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
       <c r="E170" s="2">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="F170" s="2">
-        <v>6.3E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>0</v>
@@ -13353,7 +13341,7 @@
         <v>14</v>
       </c>
       <c r="B171" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C171" s="2">
         <v>-5.0000000000000001E-3</v>
@@ -13365,7 +13353,7 @@
         <v>0.4</v>
       </c>
       <c r="F171" s="2">
-        <v>0.14299999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>0</v>
